--- a/speedlookup.xlsx
+++ b/speedlookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruediheimlicher/Documents/Elektronik/ AVR/ AVR_Programme/H0_Decoder_A85/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C064A04-4522-C64E-985E-26FB9DF27937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83A346-8CEA-4949-9957-70459A32A385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="24940" windowHeight="14980" xr2:uid="{8671D891-1113-E44C-A35B-D7161A09C855}"/>
+    <workbookView xWindow="4460" yWindow="4160" windowWidth="24940" windowHeight="14980" xr2:uid="{8671D891-1113-E44C-A35B-D7161A09C855}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>speedlookup</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>array:</t>
+  </si>
+  <si>
+    <t>lin</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$2</c:f>
+              <c:f>Tabelle1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -194,7 +197,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$17</c:f>
+              <c:f>Tabelle1!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -202,46 +205,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.834123473374163</c:v>
+                  <c:v>25.595802480981543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.795741951509804</c:v>
+                  <c:v>40.568387108221287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.668246946748326</c:v>
+                  <c:v>51.191604961963087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.204258048490189</c:v>
+                  <c:v>59.431612891778705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.629865424883974</c:v>
+                  <c:v>66.164189589202834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.59910291059688</c:v>
+                  <c:v>71.856502078997778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.50237042012249</c:v>
+                  <c:v>76.787407442944627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.59148390301961</c:v>
+                  <c:v>81.136774216442575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119.03838152186435</c:v>
+                  <c:v>85.027415372760245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.96569976994357</c:v>
+                  <c:v>88.546928407102556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.46398889825812</c:v>
+                  <c:v>91.759992070184381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132.60201376564578</c:v>
+                  <c:v>94.71572411831842</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136.43322638397106</c:v>
+                  <c:v>97.452304559979325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$2</c:f>
+              <c:f>Tabelle1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -543,7 +546,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$17</c:f>
+              <c:f>Tabelle1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -599,6 +602,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-164F-D641-848C-1FA53DD81434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23856062735983122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34948500216800943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38907562519182182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42254902000712841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45154499349597177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52069634257911257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53959062302381244</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55697167615341836</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57306401783911898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58804562952784067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE66-574D-AA8B-CDC0821D856F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -678,6 +768,7 @@
         <c:axId val="368580271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -802,36 +893,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -922,6 +983,177 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56ED-5442-A6E9-EC4CA1E401E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E34B-A347-9E53-EAD4C67C2898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E34B-A347-9E53-EAD4C67C2898}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2784,13 +3016,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1155700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2826,7 +3058,7 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -3190,37 +3422,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467BED83-0BAD-F148-A65A-9BAAA13586B5}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="55.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="50.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="50.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>80</v>
+      </c>
+      <c r="H1">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
-        <v>140</v>
+      <c r="K1">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3228,392 +3469,580 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>H17</f>
-        <v>0,35,56,71,83,92,100,107,113,119,123,128,132,136,140</v>
+      <c r="L2" s="1" t="str">
+        <f>L17</f>
+        <v>0,25,40,51,59,66,71,76,81,85,88,91,94,97,100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>A3*$D$1</f>
+        <f>A3*$H$1</f>
         <v>0</v>
       </c>
       <c r="C3" t="str">
         <f>C2&amp;B3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
+        <f>A3/$A$17*$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>D3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="H3" s="2">
         <f>LOG(A3+1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>D3/$D$17*$G$1</f>
+      <c r="I3" s="2">
+        <f>$I$2*LOG(A3+1)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>F3&amp;","</f>
+      <c r="J3" s="1">
+        <f>H3/$H$17*$K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>J3&amp;","</f>
         <v>0,</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <f>A4*$D$1</f>
+        <f>A4*$H$1</f>
         <v>14</v>
       </c>
       <c r="C4" t="str">
         <f>C3&amp;B4&amp;","</f>
         <v>0,14,</v>
       </c>
-      <c r="D4" s="2">
-        <f>LOG(A4+1)</f>
+      <c r="D4" s="1">
+        <f>INT(A4/$A$17*$E$1)</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>E3&amp;D4&amp;","</f>
+        <v>0,5,</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:I17" si="0">LOG(A4+1)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F17" si="0">D4/$D$17*$G$1</f>
-        <v>35.834123473374163</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f>H3&amp;INT(F4)&amp;","</f>
-        <v>0,35,</v>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I17" si="1">$I$2*LOG(A4+1)</f>
+        <v>0.1505149978319906</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J17" si="2">H4/$H$17*$K$1</f>
+        <v>25.595802480981543</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>L3&amp;INT(J4)&amp;","</f>
+        <v>0,25,</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B17" si="1">A5*$D$1</f>
+        <f t="shared" ref="B5:B17" si="3">A5*$H$1</f>
         <v>28</v>
       </c>
       <c r="C5" t="str">
         <f>C4&amp;B5&amp;","</f>
         <v>0,14,28,</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D17" si="2">LOG(A5+1)</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D17" si="4">INT(A5/$A$17*$E$1)</f>
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ref="E5:E17" si="5">E4&amp;D5&amp;","</f>
+        <v>0,5,11,</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>56.795741951509804</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H17" si="3">H4&amp;INT(F5)&amp;","</f>
-        <v>0,35,56,</v>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23856062735983122</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>40.568387108221287</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L16" si="6">L4&amp;INT(J5)&amp;","</f>
+        <v>0,25,40,</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C16" si="7">C5&amp;B6&amp;","</f>
+        <v>0,14,28,42,</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C17" si="4">C5&amp;B6&amp;","</f>
-        <v>0,14,28,42,</v>
-      </c>
-      <c r="D6" s="2">
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.6020599913279624</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>71.668246946748326</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,</v>
+        <v>51.191604961963087</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,</v>
-      </c>
-      <c r="D7" s="2">
+        <v>0.34948500216800943</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>83.204258048490189</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,</v>
+        <v>59.431612891778705</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,</v>
-      </c>
-      <c r="D8" s="2">
+        <v>0.38907562519182182</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.77815125038364363</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>92.629865424883974</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,</v>
+        <v>66.164189589202834</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,</v>
-      </c>
-      <c r="D9" s="2">
+        <v>0.42254902000712841</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.84509804001425681</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>100.59910291059688</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,</v>
+        <v>71.856502078997778</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,</v>
-      </c>
-      <c r="D10" s="2">
+        <v>0.45154499349597177</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>107.50237042012249</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,</v>
+        <v>76.787407442944627</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,</v>
-      </c>
-      <c r="D11" s="2">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.95424250943932487</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>113.59148390301961</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,</v>
+        <v>81.136774216442575</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,126,</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,51,</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,126,</v>
-      </c>
-      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>119.03838152186435</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,119,</v>
+        <v>85.027415372760245</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,85,</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,126,140,</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,51,57,</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,126,140,</v>
-      </c>
-      <c r="D13" s="2">
+        <v>0.52069634257911257</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>1.0413926851582251</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>123.96569976994357</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,119,123,</v>
+        <v>88.546928407102556</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,85,88,</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,126,140,154,</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,51,57,62,</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,126,140,154,</v>
-      </c>
-      <c r="D14" s="2">
+        <v>0.53959062302381244</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>1.0791812460476249</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>128.46398889825812</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,119,123,128,</v>
+        <v>91.759992070184381</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,85,88,91,</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,126,140,154,168,</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,51,57,62,68,</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,126,140,154,168,</v>
-      </c>
-      <c r="D15" s="2">
+        <v>0.55697167615341836</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.1139433523068367</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>132.60201376564578</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,119,123,128,132,</v>
+        <v>94.71572411831842</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,85,88,91,94,</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,14,28,42,56,70,84,98,112,126,140,154,168,182,</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,5,11,17,22,28,34,40,45,51,57,62,68,74,</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14,28,42,56,70,84,98,112,126,140,154,168,182,</v>
-      </c>
-      <c r="D16" s="2">
+        <v>0.57306401783911898</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>1.146128035678238</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>136.43322638397106</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0,35,56,71,83,92,100,107,113,119,123,128,132,136,</v>
+        <v>97.452304559979325</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0,25,40,51,59,66,71,76,81,85,88,91,94,97,</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>C16&amp;B17</f>
         <v>0,14,28,42,56,70,84,98,112,126,140,154,168,182,196</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>E16&amp;D17</f>
+        <v>0,5,11,17,22,28,34,40,45,51,57,62,68,74,80</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58804562952784067</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>H16&amp;INT(F17)</f>
-        <v>0,35,56,71,83,92,100,107,113,119,123,128,132,136,140</v>
+        <v>100</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>L16&amp;INT(J17)</f>
+        <v>0,25,40,51,59,66,71,76,81,85,88,91,94,97,100</v>
       </c>
     </row>
   </sheetData>
